--- a/research/bert+spectral.xlsx
+++ b/research/bert+spectral.xlsx
@@ -476,10 +476,10 @@
         <v>3</v>
       </c>
       <c r="E2" t="n">
-        <v>1.335711002349854</v>
+        <v>5.296656608581543</v>
       </c>
       <c r="F2" t="n">
-        <v>5.971725940704346</v>
+        <v>2.923785924911499</v>
       </c>
     </row>
     <row r="3">
@@ -498,10 +498,10 @@
         <v>3</v>
       </c>
       <c r="E3" t="n">
-        <v>0.8958306908607483</v>
+        <v>5.152728080749512</v>
       </c>
       <c r="F3" t="n">
-        <v>6.110448360443115</v>
+        <v>3.427364349365234</v>
       </c>
     </row>
     <row r="4">
@@ -520,10 +520,10 @@
         <v>1</v>
       </c>
       <c r="E4" t="n">
-        <v>1.765800595283508</v>
+        <v>-0.6360305547714233</v>
       </c>
       <c r="F4" t="n">
-        <v>-0.4207689762115479</v>
+        <v>-3.455523252487183</v>
       </c>
     </row>
     <row r="5">
@@ -542,10 +542,10 @@
         <v>1</v>
       </c>
       <c r="E5" t="n">
-        <v>4.449234008789062</v>
+        <v>-1.595931768417358</v>
       </c>
       <c r="F5" t="n">
-        <v>-1.187669992446899</v>
+        <v>-5.600412368774414</v>
       </c>
     </row>
     <row r="6">
@@ -564,10 +564,10 @@
         <v>1</v>
       </c>
       <c r="E6" t="n">
-        <v>2.628382921218872</v>
+        <v>0.7829564213752747</v>
       </c>
       <c r="F6" t="n">
-        <v>2.677492380142212</v>
+        <v>1.26286518573761</v>
       </c>
     </row>
     <row r="7">
@@ -586,10 +586,10 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>3.937605619430542</v>
+        <v>5.28993558883667</v>
       </c>
       <c r="F7" t="n">
-        <v>-3.949652194976807</v>
+        <v>0.2551234364509583</v>
       </c>
     </row>
     <row r="8">
@@ -608,10 +608,10 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>2.230497360229492</v>
+        <v>6.806449413299561</v>
       </c>
       <c r="F8" t="n">
-        <v>-5.982253551483154</v>
+        <v>-0.01163743808865547</v>
       </c>
     </row>
     <row r="9">
@@ -630,10 +630,10 @@
         <v>1</v>
       </c>
       <c r="E9" t="n">
-        <v>1.499532222747803</v>
+        <v>-2.214959144592285</v>
       </c>
       <c r="F9" t="n">
-        <v>-1.256297945976257</v>
+        <v>-1.513445734977722</v>
       </c>
     </row>
     <row r="10">
@@ -652,10 +652,10 @@
         <v>1</v>
       </c>
       <c r="E10" t="n">
-        <v>-1.012904524803162</v>
+        <v>1.280035495758057</v>
       </c>
       <c r="F10" t="n">
-        <v>1.801789999008179</v>
+        <v>-3.910391330718994</v>
       </c>
     </row>
     <row r="11">
@@ -674,10 +674,10 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>3.261542797088623</v>
+        <v>5.272829055786133</v>
       </c>
       <c r="F11" t="n">
-        <v>-3.907870292663574</v>
+        <v>0.6706164479255676</v>
       </c>
     </row>
     <row r="12">
@@ -696,10 +696,10 @@
         <v>1</v>
       </c>
       <c r="E12" t="n">
-        <v>2.98823881149292</v>
+        <v>-1.416211009025574</v>
       </c>
       <c r="F12" t="n">
-        <v>0.4953306913375854</v>
+        <v>-4.185043811798096</v>
       </c>
     </row>
     <row r="13">
@@ -718,10 +718,10 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>1.971051812171936</v>
+        <v>4.409317016601562</v>
       </c>
       <c r="F13" t="n">
-        <v>4.772129058837891</v>
+        <v>1.903476595878601</v>
       </c>
     </row>
     <row r="14">
@@ -740,10 +740,10 @@
         <v>1</v>
       </c>
       <c r="E14" t="n">
-        <v>-0.5214492678642273</v>
+        <v>2.10733699798584</v>
       </c>
       <c r="F14" t="n">
-        <v>2.54345965385437</v>
+        <v>0.6523600220680237</v>
       </c>
     </row>
     <row r="15">
@@ -762,10 +762,10 @@
         <v>1</v>
       </c>
       <c r="E15" t="n">
-        <v>0.5209301114082336</v>
+        <v>0.9202120304107666</v>
       </c>
       <c r="F15" t="n">
-        <v>1.190438628196716</v>
+        <v>-0.1952462643384933</v>
       </c>
     </row>
     <row r="16">
@@ -784,10 +784,10 @@
         <v>1</v>
       </c>
       <c r="E16" t="n">
-        <v>1.451540946960449</v>
+        <v>-2.038876533508301</v>
       </c>
       <c r="F16" t="n">
-        <v>-1.125567555427551</v>
+        <v>-1.820804357528687</v>
       </c>
     </row>
     <row r="17">
@@ -806,10 +806,10 @@
         <v>1</v>
       </c>
       <c r="E17" t="n">
-        <v>4.916338443756104</v>
+        <v>-3.693572282791138</v>
       </c>
       <c r="F17" t="n">
-        <v>0.6920676231384277</v>
+        <v>-4.915371417999268</v>
       </c>
     </row>
     <row r="18">
@@ -828,10 +828,10 @@
         <v>1</v>
       </c>
       <c r="E18" t="n">
-        <v>6.173188209533691</v>
+        <v>-0.4127386808395386</v>
       </c>
       <c r="F18" t="n">
-        <v>-0.7520027756690979</v>
+        <v>-6.993086338043213</v>
       </c>
     </row>
     <row r="19">
@@ -850,10 +850,10 @@
         <v>1</v>
       </c>
       <c r="E19" t="n">
-        <v>-3.407436847686768</v>
+        <v>1.329995274543762</v>
       </c>
       <c r="F19" t="n">
-        <v>3.814475774765015</v>
+        <v>-6.813536167144775</v>
       </c>
     </row>
     <row r="20">
@@ -872,10 +872,10 @@
         <v>1</v>
       </c>
       <c r="E20" t="n">
-        <v>-3.790611028671265</v>
+        <v>2.485859155654907</v>
       </c>
       <c r="F20" t="n">
-        <v>2.105924129486084</v>
+        <v>-5.553413391113281</v>
       </c>
     </row>
     <row r="21">
@@ -894,10 +894,10 @@
         <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>0.03928285092115402</v>
+        <v>-2.348759174346924</v>
       </c>
       <c r="F21" t="n">
-        <v>-2.789873361587524</v>
+        <v>0.6459848880767822</v>
       </c>
     </row>
     <row r="22">
@@ -916,10 +916,10 @@
         <v>1</v>
       </c>
       <c r="E22" t="n">
-        <v>-1.004931807518005</v>
+        <v>1.87984025478363</v>
       </c>
       <c r="F22" t="n">
-        <v>2.315448522567749</v>
+        <v>0.7853648066520691</v>
       </c>
     </row>
     <row r="23">
@@ -938,10 +938,10 @@
         <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>0.6020118594169617</v>
+        <v>-1.316688418388367</v>
       </c>
       <c r="F23" t="n">
-        <v>-1.942212343215942</v>
+        <v>0.2423283904790878</v>
       </c>
     </row>
     <row r="24">
@@ -960,10 +960,10 @@
         <v>0</v>
       </c>
       <c r="E24" t="n">
-        <v>1.410219430923462</v>
+        <v>6.980126857757568</v>
       </c>
       <c r="F24" t="n">
-        <v>-6.616042137145996</v>
+        <v>-2.140003681182861</v>
       </c>
     </row>
     <row r="25">
@@ -982,10 +982,10 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>2.720889091491699</v>
+        <v>4.24747896194458</v>
       </c>
       <c r="F25" t="n">
-        <v>-3.80302095413208</v>
+        <v>0.6835096478462219</v>
       </c>
     </row>
     <row r="26">
@@ -1004,10 +1004,10 @@
         <v>1</v>
       </c>
       <c r="E26" t="n">
-        <v>6.518524646759033</v>
+        <v>-0.2402583509683609</v>
       </c>
       <c r="F26" t="n">
-        <v>-0.8572736382484436</v>
+        <v>-7.21334981918335</v>
       </c>
     </row>
     <row r="27">
@@ -1026,10 +1026,10 @@
         <v>3</v>
       </c>
       <c r="E27" t="n">
-        <v>-0.2021457701921463</v>
+        <v>6.88029146194458</v>
       </c>
       <c r="F27" t="n">
-        <v>6.249159336090088</v>
+        <v>2.317373037338257</v>
       </c>
     </row>
     <row r="28">
@@ -1048,10 +1048,10 @@
         <v>1</v>
       </c>
       <c r="E28" t="n">
-        <v>1.368858933448792</v>
+        <v>1.597705841064453</v>
       </c>
       <c r="F28" t="n">
-        <v>2.274935007095337</v>
+        <v>-1.659870505332947</v>
       </c>
     </row>
     <row r="29">
@@ -1070,10 +1070,10 @@
         <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>2.449713230133057</v>
+        <v>7.173166751861572</v>
       </c>
       <c r="F29" t="n">
-        <v>-6.300827503204346</v>
+        <v>-0.6176385283470154</v>
       </c>
     </row>
     <row r="30">
@@ -1092,10 +1092,10 @@
         <v>2</v>
       </c>
       <c r="E30" t="n">
-        <v>-0.8317471742630005</v>
+        <v>-2.941051006317139</v>
       </c>
       <c r="F30" t="n">
-        <v>-3.123470067977905</v>
+        <v>1.226118326187134</v>
       </c>
     </row>
     <row r="31">
@@ -1114,10 +1114,10 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>1.567311406135559</v>
+        <v>1.17999804019928</v>
       </c>
       <c r="F31" t="n">
-        <v>1.781701326370239</v>
+        <v>-0.2031351327896118</v>
       </c>
     </row>
     <row r="32">
@@ -1136,10 +1136,10 @@
         <v>1</v>
       </c>
       <c r="E32" t="n">
-        <v>0.4954012334346771</v>
+        <v>2.167927980422974</v>
       </c>
       <c r="F32" t="n">
-        <v>3.110944271087646</v>
+        <v>-2.272311925888062</v>
       </c>
     </row>
     <row r="33">
@@ -1158,10 +1158,10 @@
         <v>1</v>
       </c>
       <c r="E33" t="n">
-        <v>0.6927716732025146</v>
+        <v>2.008250951766968</v>
       </c>
       <c r="F33" t="n">
-        <v>2.850350618362427</v>
+        <v>-0.4186128377914429</v>
       </c>
     </row>
     <row r="34">
@@ -1180,10 +1180,10 @@
         <v>1</v>
       </c>
       <c r="E34" t="n">
-        <v>0.4094941020011902</v>
+        <v>0.8809766173362732</v>
       </c>
       <c r="F34" t="n">
-        <v>1.634336709976196</v>
+        <v>-1.071547746658325</v>
       </c>
     </row>
     <row r="35">
@@ -1202,10 +1202,10 @@
         <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>-0.3298060595989227</v>
+        <v>4.399403095245361</v>
       </c>
       <c r="F35" t="n">
-        <v>2.152658700942993</v>
+        <v>-0.7325024604797363</v>
       </c>
     </row>
     <row r="36">
@@ -1224,10 +1224,10 @@
         <v>3</v>
       </c>
       <c r="E36" t="n">
-        <v>1.127408266067505</v>
+        <v>5.744864940643311</v>
       </c>
       <c r="F36" t="n">
-        <v>7.643177032470703</v>
+        <v>4.697179317474365</v>
       </c>
     </row>
     <row r="37">
@@ -1246,10 +1246,10 @@
         <v>1</v>
       </c>
       <c r="E37" t="n">
-        <v>4.840800762176514</v>
+        <v>-1.40717339515686</v>
       </c>
       <c r="F37" t="n">
-        <v>-1.121290922164917</v>
+        <v>-5.91955041885376</v>
       </c>
     </row>
     <row r="38">
@@ -1268,10 +1268,10 @@
         <v>1</v>
       </c>
       <c r="E38" t="n">
-        <v>5.75767993927002</v>
+        <v>-3.057028293609619</v>
       </c>
       <c r="F38" t="n">
-        <v>0.5093474984169006</v>
+        <v>-6.408873081207275</v>
       </c>
     </row>
     <row r="39">
@@ -1290,10 +1290,10 @@
         <v>0</v>
       </c>
       <c r="E39" t="n">
-        <v>2.282547950744629</v>
+        <v>-0.9576797485351562</v>
       </c>
       <c r="F39" t="n">
-        <v>-5.498827457427979</v>
+        <v>2.916661500930786</v>
       </c>
     </row>
     <row r="40">
@@ -1312,10 +1312,10 @@
         <v>1</v>
       </c>
       <c r="E40" t="n">
-        <v>1.173597097396851</v>
+        <v>-0.7071148753166199</v>
       </c>
       <c r="F40" t="n">
-        <v>0.2744488120079041</v>
+        <v>-1.299720168113708</v>
       </c>
     </row>
     <row r="41">
@@ -1334,10 +1334,10 @@
         <v>1</v>
       </c>
       <c r="E41" t="n">
-        <v>2.650589227676392</v>
+        <v>-3.073869705200195</v>
       </c>
       <c r="F41" t="n">
-        <v>-1.689292311668396</v>
+        <v>-2.297441720962524</v>
       </c>
     </row>
     <row r="42">
@@ -1356,10 +1356,10 @@
         <v>2</v>
       </c>
       <c r="E42" t="n">
-        <v>-2.414131879806519</v>
+        <v>-5.034684181213379</v>
       </c>
       <c r="F42" t="n">
-        <v>-4.440764427185059</v>
+        <v>0.1842471361160278</v>
       </c>
     </row>
     <row r="43">
@@ -1378,10 +1378,10 @@
         <v>1</v>
       </c>
       <c r="E43" t="n">
-        <v>0.7867079377174377</v>
+        <v>-1.142715096473694</v>
       </c>
       <c r="F43" t="n">
-        <v>-0.7035611867904663</v>
+        <v>-0.6007903218269348</v>
       </c>
     </row>
     <row r="44">
@@ -1400,10 +1400,10 @@
         <v>1</v>
       </c>
       <c r="E44" t="n">
-        <v>-1.98518705368042</v>
+        <v>1.585676550865173</v>
       </c>
       <c r="F44" t="n">
-        <v>1.545883059501648</v>
+        <v>1.832234859466553</v>
       </c>
     </row>
     <row r="45">
@@ -1422,10 +1422,10 @@
         <v>1</v>
       </c>
       <c r="E45" t="n">
-        <v>2.629796266555786</v>
+        <v>-0.3835540413856506</v>
       </c>
       <c r="F45" t="n">
-        <v>0.6695255041122437</v>
+        <v>-4.230440139770508</v>
       </c>
     </row>
     <row r="46">
@@ -1444,10 +1444,10 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>3.793742179870605</v>
+        <v>6.406444072723389</v>
       </c>
       <c r="F46" t="n">
-        <v>3.896652698516846</v>
+        <v>0.3775242269039154</v>
       </c>
     </row>
     <row r="47">
@@ -1466,10 +1466,10 @@
         <v>1</v>
       </c>
       <c r="E47" t="n">
-        <v>-0.6882756352424622</v>
+        <v>0.5782289505004883</v>
       </c>
       <c r="F47" t="n">
-        <v>-0.1902237683534622</v>
+        <v>-3.214255094528198</v>
       </c>
     </row>
     <row r="48">
@@ -1488,10 +1488,10 @@
         <v>1</v>
       </c>
       <c r="E48" t="n">
-        <v>-0.03509975224733353</v>
+        <v>3.237749814987183</v>
       </c>
       <c r="F48" t="n">
-        <v>4.757277965545654</v>
+        <v>-1.20684826374054</v>
       </c>
     </row>
     <row r="49">
@@ -1510,10 +1510,10 @@
         <v>1</v>
       </c>
       <c r="E49" t="n">
-        <v>0.186489999294281</v>
+        <v>-0.6770424246788025</v>
       </c>
       <c r="F49" t="n">
-        <v>-0.3170796632766724</v>
+        <v>-2.358840703964233</v>
       </c>
     </row>
     <row r="50">
@@ -1532,10 +1532,10 @@
         <v>3</v>
       </c>
       <c r="E50" t="n">
-        <v>2.59788703918457</v>
+        <v>3.713988304138184</v>
       </c>
       <c r="F50" t="n">
-        <v>5.786358833312988</v>
+        <v>3.406708955764771</v>
       </c>
     </row>
     <row r="51">
@@ -1554,10 +1554,10 @@
         <v>1</v>
       </c>
       <c r="E51" t="n">
-        <v>3.758637666702271</v>
+        <v>-3.572576284408569</v>
       </c>
       <c r="F51" t="n">
-        <v>-1.282347679138184</v>
+        <v>-3.416395425796509</v>
       </c>
     </row>
     <row r="52">
@@ -1576,10 +1576,10 @@
         <v>0</v>
       </c>
       <c r="E52" t="n">
-        <v>-2.678684711456299</v>
+        <v>0.5315285921096802</v>
       </c>
       <c r="F52" t="n">
-        <v>-0.3166942298412323</v>
+        <v>-4.023903369903564</v>
       </c>
     </row>
     <row r="53">
@@ -1598,10 +1598,10 @@
         <v>3</v>
       </c>
       <c r="E53" t="n">
-        <v>1.140726804733276</v>
+        <v>5.352686882019043</v>
       </c>
       <c r="F53" t="n">
-        <v>6.210647583007812</v>
+        <v>3.264014005661011</v>
       </c>
     </row>
     <row r="54">
@@ -1620,10 +1620,10 @@
         <v>1</v>
       </c>
       <c r="E54" t="n">
-        <v>2.816517353057861</v>
+        <v>-1.825888276100159</v>
       </c>
       <c r="F54" t="n">
-        <v>-0.7950708866119385</v>
+        <v>-3.389643907546997</v>
       </c>
     </row>
     <row r="55">
@@ -1642,10 +1642,10 @@
         <v>2</v>
       </c>
       <c r="E55" t="n">
-        <v>-0.04827290400862694</v>
+        <v>-0.4246981739997864</v>
       </c>
       <c r="F55" t="n">
-        <v>0.7181854844093323</v>
+        <v>0.07254698127508163</v>
       </c>
     </row>
     <row r="56">
@@ -1664,10 +1664,10 @@
         <v>1</v>
       </c>
       <c r="E56" t="n">
-        <v>1.81060254573822</v>
+        <v>1.690108180046082</v>
       </c>
       <c r="F56" t="n">
-        <v>2.49167013168335</v>
+        <v>-0.375068873167038</v>
       </c>
     </row>
     <row r="57">
@@ -1686,10 +1686,10 @@
         <v>3</v>
       </c>
       <c r="E57" t="n">
-        <v>0.1222572550177574</v>
+        <v>4.187124252319336</v>
       </c>
       <c r="F57" t="n">
-        <v>5.558797359466553</v>
+        <v>3.852126359939575</v>
       </c>
     </row>
     <row r="58">
@@ -1708,10 +1708,10 @@
         <v>2</v>
       </c>
       <c r="E58" t="n">
-        <v>-1.799206137657166</v>
+        <v>-3.8820641040802</v>
       </c>
       <c r="F58" t="n">
-        <v>-3.395341873168945</v>
+        <v>0.7151657342910767</v>
       </c>
     </row>
     <row r="59">
@@ -1730,10 +1730,10 @@
         <v>3</v>
       </c>
       <c r="E59" t="n">
-        <v>1.792966723442078</v>
+        <v>6.062939643859863</v>
       </c>
       <c r="F59" t="n">
-        <v>7.155056953430176</v>
+        <v>3.956174612045288</v>
       </c>
     </row>
     <row r="60">
@@ -1752,10 +1752,10 @@
         <v>2</v>
       </c>
       <c r="E60" t="n">
-        <v>-1.791609168052673</v>
+        <v>0.2218920588493347</v>
       </c>
       <c r="F60" t="n">
-        <v>-0.7906219959259033</v>
+        <v>-2.411557674407959</v>
       </c>
     </row>
     <row r="61">
@@ -1774,10 +1774,10 @@
         <v>0</v>
       </c>
       <c r="E61" t="n">
-        <v>0.7789023518562317</v>
+        <v>5.222020149230957</v>
       </c>
       <c r="F61" t="n">
-        <v>-4.076254844665527</v>
+        <v>-1.852493405342102</v>
       </c>
     </row>
     <row r="62">
@@ -1796,10 +1796,10 @@
         <v>3</v>
       </c>
       <c r="E62" t="n">
-        <v>1.418879389762878</v>
+        <v>5.650552749633789</v>
       </c>
       <c r="F62" t="n">
-        <v>6.351758003234863</v>
+        <v>3.124874353408813</v>
       </c>
     </row>
     <row r="63">
@@ -1818,10 +1818,10 @@
         <v>1</v>
       </c>
       <c r="E63" t="n">
-        <v>-0.02124997414648533</v>
+        <v>-0.4987054467201233</v>
       </c>
       <c r="F63" t="n">
-        <v>-0.06066669523715973</v>
+        <v>-2.500906467437744</v>
       </c>
     </row>
     <row r="64">
@@ -1840,10 +1840,10 @@
         <v>2</v>
       </c>
       <c r="E64" t="n">
-        <v>-2.938655376434326</v>
+        <v>-5.199433326721191</v>
       </c>
       <c r="F64" t="n">
-        <v>-4.22462272644043</v>
+        <v>0.9142377972602844</v>
       </c>
     </row>
     <row r="65">
@@ -1862,10 +1862,10 @@
         <v>0</v>
       </c>
       <c r="E65" t="n">
-        <v>1.816322445869446</v>
+        <v>-0.4012832939624786</v>
       </c>
       <c r="F65" t="n">
-        <v>-5.683425903320312</v>
+        <v>3.645447492599487</v>
       </c>
     </row>
     <row r="66">
@@ -1884,10 +1884,10 @@
         <v>1</v>
       </c>
       <c r="E66" t="n">
-        <v>0.9069879055023193</v>
+        <v>1.517395377159119</v>
       </c>
       <c r="F66" t="n">
-        <v>2.160235404968262</v>
+        <v>-1.147573947906494</v>
       </c>
     </row>
     <row r="67">
@@ -1906,10 +1906,10 @@
         <v>2</v>
       </c>
       <c r="E67" t="n">
-        <v>-1.991271734237671</v>
+        <v>-4.835158348083496</v>
       </c>
       <c r="F67" t="n">
-        <v>-1.92498779296875</v>
+        <v>-2.458237648010254</v>
       </c>
     </row>
     <row r="68">
@@ -1928,10 +1928,10 @@
         <v>0</v>
       </c>
       <c r="E68" t="n">
-        <v>1.074947476387024</v>
+        <v>-0.3350095450878143</v>
       </c>
       <c r="F68" t="n">
-        <v>-3.013807773590088</v>
+        <v>1.207162141799927</v>
       </c>
     </row>
     <row r="69">
@@ -1950,10 +1950,10 @@
         <v>3</v>
       </c>
       <c r="E69" t="n">
-        <v>1.212271809577942</v>
+        <v>5.30860710144043</v>
       </c>
       <c r="F69" t="n">
-        <v>6.051371574401855</v>
+        <v>3.073288917541504</v>
       </c>
     </row>
     <row r="70">
@@ -1972,10 +1972,10 @@
         <v>1</v>
       </c>
       <c r="E70" t="n">
-        <v>-0.3772963881492615</v>
+        <v>2.453160762786865</v>
       </c>
       <c r="F70" t="n">
-        <v>3.303346633911133</v>
+        <v>-0.8638140559196472</v>
       </c>
     </row>
     <row r="71">
@@ -1994,10 +1994,10 @@
         <v>1</v>
       </c>
       <c r="E71" t="n">
-        <v>3.694558143615723</v>
+        <v>-3.837464809417725</v>
       </c>
       <c r="F71" t="n">
-        <v>-1.514814615249634</v>
+        <v>-3.258409738540649</v>
       </c>
     </row>
     <row r="72">
@@ -2016,10 +2016,10 @@
         <v>1</v>
       </c>
       <c r="E72" t="n">
-        <v>-1.127636790275574</v>
+        <v>3.183177471160889</v>
       </c>
       <c r="F72" t="n">
-        <v>4.354095935821533</v>
+        <v>-2.079680204391479</v>
       </c>
     </row>
     <row r="73">
@@ -2038,10 +2038,10 @@
         <v>0</v>
       </c>
       <c r="E73" t="n">
-        <v>1.443567276000977</v>
+        <v>3.983636379241943</v>
       </c>
       <c r="F73" t="n">
-        <v>4.063805103302002</v>
+        <v>1.296612620353699</v>
       </c>
     </row>
     <row r="74">
@@ -2060,10 +2060,10 @@
         <v>1</v>
       </c>
       <c r="E74" t="n">
-        <v>-0.9399500489234924</v>
+        <v>2.903940439224243</v>
       </c>
       <c r="F74" t="n">
-        <v>4.389391422271729</v>
+        <v>-2.1997389793396</v>
       </c>
     </row>
     <row r="75">
@@ -2082,10 +2082,10 @@
         <v>3</v>
       </c>
       <c r="E75" t="n">
-        <v>3.176149606704712</v>
+        <v>3.828649520874023</v>
       </c>
       <c r="F75" t="n">
-        <v>7.611383438110352</v>
+        <v>5.306971073150635</v>
       </c>
     </row>
     <row r="76">
@@ -2104,10 +2104,10 @@
         <v>0</v>
       </c>
       <c r="E76" t="n">
-        <v>1.432359933853149</v>
+        <v>-0.6080092787742615</v>
       </c>
       <c r="F76" t="n">
-        <v>-6.165937900543213</v>
+        <v>4.158345222473145</v>
       </c>
     </row>
     <row r="77">
@@ -2126,10 +2126,10 @@
         <v>0</v>
       </c>
       <c r="E77" t="n">
-        <v>1.703939318656921</v>
+        <v>2.803712606430054</v>
       </c>
       <c r="F77" t="n">
-        <v>3.302735567092896</v>
+        <v>-0.1549883782863617</v>
       </c>
     </row>
     <row r="78">
@@ -2148,10 +2148,10 @@
         <v>1</v>
       </c>
       <c r="E78" t="n">
-        <v>3.715695858001709</v>
+        <v>-0.5007038712501526</v>
       </c>
       <c r="F78" t="n">
-        <v>-0.2431297302246094</v>
+        <v>-4.93226432800293</v>
       </c>
     </row>
     <row r="79">
@@ -2170,10 +2170,10 @@
         <v>0</v>
       </c>
       <c r="E79" t="n">
-        <v>1.019885897636414</v>
+        <v>0.03756458312273026</v>
       </c>
       <c r="F79" t="n">
-        <v>-5.690460205078125</v>
+        <v>4.279866695404053</v>
       </c>
     </row>
     <row r="80">
@@ -2192,10 +2192,10 @@
         <v>1</v>
       </c>
       <c r="E80" t="n">
-        <v>-0.607058584690094</v>
+        <v>3.702407360076904</v>
       </c>
       <c r="F80" t="n">
-        <v>4.94410228729248</v>
+        <v>-1.651004791259766</v>
       </c>
     </row>
     <row r="81">
@@ -2214,10 +2214,10 @@
         <v>0</v>
       </c>
       <c r="E81" t="n">
-        <v>0.7651486396789551</v>
+        <v>0.3873478472232819</v>
       </c>
       <c r="F81" t="n">
-        <v>-4.977790832519531</v>
+        <v>3.721299886703491</v>
       </c>
     </row>
     <row r="82">
@@ -2236,10 +2236,10 @@
         <v>1</v>
       </c>
       <c r="E82" t="n">
-        <v>0.8153974413871765</v>
+        <v>3.206968784332275</v>
       </c>
       <c r="F82" t="n">
-        <v>3.792098522186279</v>
+        <v>0.6673147678375244</v>
       </c>
     </row>
     <row r="83">
@@ -2258,10 +2258,10 @@
         <v>3</v>
       </c>
       <c r="E83" t="n">
-        <v>1.237271547317505</v>
+        <v>5.762368679046631</v>
       </c>
       <c r="F83" t="n">
-        <v>7.342999935150146</v>
+        <v>4.345104217529297</v>
       </c>
     </row>
     <row r="84">
@@ -2280,10 +2280,10 @@
         <v>2</v>
       </c>
       <c r="E84" t="n">
-        <v>-1.732191205024719</v>
+        <v>-4.305300712585449</v>
       </c>
       <c r="F84" t="n">
-        <v>-4.057912826538086</v>
+        <v>0.0229889303445816</v>
       </c>
     </row>
     <row r="85">
@@ -2302,10 +2302,10 @@
         <v>1</v>
       </c>
       <c r="E85" t="n">
-        <v>2.349060297012329</v>
+        <v>-2.466784000396729</v>
       </c>
       <c r="F85" t="n">
-        <v>-1.012152910232544</v>
+        <v>-2.473042488098145</v>
       </c>
     </row>
     <row r="86">
@@ -2324,10 +2324,10 @@
         <v>1</v>
       </c>
       <c r="E86" t="n">
-        <v>0.2965737581253052</v>
+        <v>0.6773669123649597</v>
       </c>
       <c r="F86" t="n">
-        <v>1.665686249732971</v>
+        <v>-0.6461918354034424</v>
       </c>
     </row>
     <row r="87">
@@ -2346,10 +2346,10 @@
         <v>1</v>
       </c>
       <c r="E87" t="n">
-        <v>-3.134697437286377</v>
+        <v>1.840899467468262</v>
       </c>
       <c r="F87" t="n">
-        <v>2.98338794708252</v>
+        <v>-6.022201061248779</v>
       </c>
     </row>
     <row r="88">
@@ -2368,10 +2368,10 @@
         <v>2</v>
       </c>
       <c r="E88" t="n">
-        <v>-3.731682300567627</v>
+        <v>-4.176621437072754</v>
       </c>
       <c r="F88" t="n">
-        <v>-2.607944250106812</v>
+        <v>2.61047625541687</v>
       </c>
     </row>
     <row r="89">
@@ -2390,10 +2390,10 @@
         <v>1</v>
       </c>
       <c r="E89" t="n">
-        <v>-2.062372922897339</v>
+        <v>2.55331563949585</v>
       </c>
       <c r="F89" t="n">
-        <v>3.947846412658691</v>
+        <v>-2.959237337112427</v>
       </c>
     </row>
     <row r="90">
@@ -2412,10 +2412,10 @@
         <v>1</v>
       </c>
       <c r="E90" t="n">
-        <v>3.591161012649536</v>
+        <v>-2.591120958328247</v>
       </c>
       <c r="F90" t="n">
-        <v>0.6433538794517517</v>
+        <v>-3.598843097686768</v>
       </c>
     </row>
     <row r="91">
@@ -2434,10 +2434,10 @@
         <v>1</v>
       </c>
       <c r="E91" t="n">
-        <v>2.558068037033081</v>
+        <v>-2.285416126251221</v>
       </c>
       <c r="F91" t="n">
-        <v>-0.1862909346818924</v>
+        <v>-3.108744382858276</v>
       </c>
     </row>
     <row r="92">
@@ -2456,10 +2456,10 @@
         <v>2</v>
       </c>
       <c r="E92" t="n">
-        <v>-1.943193316459656</v>
+        <v>4.252594470977783</v>
       </c>
       <c r="F92" t="n">
-        <v>5.626911163330078</v>
+        <v>-2.960797548294067</v>
       </c>
     </row>
     <row r="93">
@@ -2478,10 +2478,10 @@
         <v>1</v>
       </c>
       <c r="E93" t="n">
-        <v>0.6190081238746643</v>
+        <v>-0.1105520874261856</v>
       </c>
       <c r="F93" t="n">
-        <v>0.4325323700904846</v>
+        <v>-2.18744945526123</v>
       </c>
     </row>
     <row r="94">
@@ -2500,10 +2500,10 @@
         <v>1</v>
       </c>
       <c r="E94" t="n">
-        <v>4.173798084259033</v>
+        <v>1.795724153518677</v>
       </c>
       <c r="F94" t="n">
-        <v>2.727716207504272</v>
+        <v>-4.782327651977539</v>
       </c>
     </row>
     <row r="95">
@@ -2522,10 +2522,10 @@
         <v>0</v>
       </c>
       <c r="E95" t="n">
-        <v>2.310240507125854</v>
+        <v>-1.910764455795288</v>
       </c>
       <c r="F95" t="n">
-        <v>-4.065200328826904</v>
+        <v>3.944810152053833</v>
       </c>
     </row>
     <row r="96">
@@ -2544,10 +2544,10 @@
         <v>1</v>
       </c>
       <c r="E96" t="n">
-        <v>1.166229128837585</v>
+        <v>-0.08169271796941757</v>
       </c>
       <c r="F96" t="n">
-        <v>0.8410871028900146</v>
+        <v>-1.290583252906799</v>
       </c>
     </row>
     <row r="97">
@@ -2566,10 +2566,10 @@
         <v>1</v>
       </c>
       <c r="E97" t="n">
-        <v>-1.526777029037476</v>
+        <v>2.326990365982056</v>
       </c>
       <c r="F97" t="n">
-        <v>2.598187685012817</v>
+        <v>2.059645175933838</v>
       </c>
     </row>
     <row r="98">
@@ -2588,10 +2588,10 @@
         <v>1</v>
       </c>
       <c r="E98" t="n">
-        <v>1.757506132125854</v>
+        <v>-2.183333396911621</v>
       </c>
       <c r="F98" t="n">
-        <v>-1.061223387718201</v>
+        <v>-1.92927074432373</v>
       </c>
     </row>
     <row r="99">
@@ -2610,10 +2610,10 @@
         <v>3</v>
       </c>
       <c r="E99" t="n">
-        <v>2.764338970184326</v>
+        <v>3.461992502212524</v>
       </c>
       <c r="F99" t="n">
-        <v>5.947361469268799</v>
+        <v>3.16973352432251</v>
       </c>
     </row>
     <row r="100">
@@ -2632,10 +2632,10 @@
         <v>1</v>
       </c>
       <c r="E100" t="n">
-        <v>2.05420994758606</v>
+        <v>-2.242642641067505</v>
       </c>
       <c r="F100" t="n">
-        <v>-0.754527747631073</v>
+        <v>-2.426865339279175</v>
       </c>
     </row>
     <row r="101">
@@ -2654,10 +2654,10 @@
         <v>3</v>
       </c>
       <c r="E101" t="n">
-        <v>3.313554525375366</v>
+        <v>5.925617218017578</v>
       </c>
       <c r="F101" t="n">
-        <v>5.055360794067383</v>
+        <v>1.62201201915741</v>
       </c>
     </row>
     <row r="102">
@@ -2676,10 +2676,10 @@
         <v>1</v>
       </c>
       <c r="E102" t="n">
-        <v>1.175805687904358</v>
+        <v>-0.06628404557704926</v>
       </c>
       <c r="F102" t="n">
-        <v>0.9726272821426392</v>
+        <v>-0.7187387943267822</v>
       </c>
     </row>
     <row r="103">
@@ -2698,10 +2698,10 @@
         <v>3</v>
       </c>
       <c r="E103" t="n">
-        <v>1.043804287910461</v>
+        <v>5.268126010894775</v>
       </c>
       <c r="F103" t="n">
-        <v>6.239025592803955</v>
+        <v>3.387678146362305</v>
       </c>
     </row>
     <row r="104">
@@ -2720,10 +2720,10 @@
         <v>3</v>
       </c>
       <c r="E104" t="n">
-        <v>-0.3969983160495758</v>
+        <v>2.856376886367798</v>
       </c>
       <c r="F104" t="n">
-        <v>3.386892080307007</v>
+        <v>1.355457544326782</v>
       </c>
     </row>
     <row r="105">
@@ -2742,10 +2742,10 @@
         <v>3</v>
       </c>
       <c r="E105" t="n">
-        <v>-1.211479067802429</v>
+        <v>5.263988018035889</v>
       </c>
       <c r="F105" t="n">
-        <v>7.359708309173584</v>
+        <v>1.332711696624756</v>
       </c>
     </row>
     <row r="106">
@@ -2764,10 +2764,10 @@
         <v>1</v>
       </c>
       <c r="E106" t="n">
-        <v>3.41570782661438</v>
+        <v>-2.782631635665894</v>
       </c>
       <c r="F106" t="n">
-        <v>1.450896620750427</v>
+        <v>-4.356212139129639</v>
       </c>
     </row>
     <row r="107">
@@ -2786,10 +2786,10 @@
         <v>0</v>
       </c>
       <c r="E107" t="n">
-        <v>1.031105637550354</v>
+        <v>3.755263805389404</v>
       </c>
       <c r="F107" t="n">
-        <v>4.49181604385376</v>
+        <v>1.930437684059143</v>
       </c>
     </row>
     <row r="108">
@@ -2808,10 +2808,10 @@
         <v>1</v>
       </c>
       <c r="E108" t="n">
-        <v>1.118629574775696</v>
+        <v>-0.8145625591278076</v>
       </c>
       <c r="F108" t="n">
-        <v>0.2545762062072754</v>
+        <v>-1.83397376537323</v>
       </c>
     </row>
     <row r="109">
@@ -2830,10 +2830,10 @@
         <v>1</v>
       </c>
       <c r="E109" t="n">
-        <v>1.903352618217468</v>
+        <v>-1.04649019241333</v>
       </c>
       <c r="F109" t="n">
-        <v>0.3861553072929382</v>
+        <v>-3.022995948791504</v>
       </c>
     </row>
     <row r="110">
@@ -2852,10 +2852,10 @@
         <v>0</v>
       </c>
       <c r="E110" t="n">
-        <v>1.786572098731995</v>
+        <v>0.2641004621982574</v>
       </c>
       <c r="F110" t="n">
-        <v>-4.4389328956604</v>
+        <v>2.768670797348022</v>
       </c>
     </row>
     <row r="111">
@@ -2874,10 +2874,10 @@
         <v>1</v>
       </c>
       <c r="E111" t="n">
-        <v>1.496487140655518</v>
+        <v>-1.80466628074646</v>
       </c>
       <c r="F111" t="n">
-        <v>-0.4169541001319885</v>
+        <v>-1.240275382995605</v>
       </c>
     </row>
     <row r="112">
@@ -2896,10 +2896,10 @@
         <v>2</v>
       </c>
       <c r="E112" t="n">
-        <v>-1.271541833877563</v>
+        <v>-3.895326137542725</v>
       </c>
       <c r="F112" t="n">
-        <v>-4.004364013671875</v>
+        <v>-0.4872229397296906</v>
       </c>
     </row>
     <row r="113">
@@ -2918,10 +2918,10 @@
         <v>1</v>
       </c>
       <c r="E113" t="n">
-        <v>-0.004363494925200939</v>
+        <v>-0.8579321503639221</v>
       </c>
       <c r="F113" t="n">
-        <v>-0.9824040532112122</v>
+        <v>-0.4010463058948517</v>
       </c>
     </row>
     <row r="114">
@@ -2940,10 +2940,10 @@
         <v>1</v>
       </c>
       <c r="E114" t="n">
-        <v>2.007265329360962</v>
+        <v>-3.035060882568359</v>
       </c>
       <c r="F114" t="n">
-        <v>-1.624629497528076</v>
+        <v>-1.77023458480835</v>
       </c>
     </row>
     <row r="115">
@@ -2962,10 +2962,10 @@
         <v>3</v>
       </c>
       <c r="E115" t="n">
-        <v>1.629645347595215</v>
+        <v>4.671397686004639</v>
       </c>
       <c r="F115" t="n">
-        <v>5.290400981903076</v>
+        <v>2.301094532012939</v>
       </c>
     </row>
     <row r="116">
@@ -2984,10 +2984,10 @@
         <v>2</v>
       </c>
       <c r="E116" t="n">
-        <v>-0.4759090840816498</v>
+        <v>-1.343120813369751</v>
       </c>
       <c r="F116" t="n">
-        <v>-2.180110454559326</v>
+        <v>1.14648973941803</v>
       </c>
     </row>
     <row r="117">
@@ -3006,10 +3006,10 @@
         <v>0</v>
       </c>
       <c r="E117" t="n">
-        <v>-1.304659485816956</v>
+        <v>4.394510746002197</v>
       </c>
       <c r="F117" t="n">
-        <v>-1.173098921775818</v>
+        <v>-4.71291446685791</v>
       </c>
     </row>
     <row r="118">
@@ -3028,10 +3028,10 @@
         <v>3</v>
       </c>
       <c r="E118" t="n">
-        <v>-1.72040843963623</v>
+        <v>4.216151714324951</v>
       </c>
       <c r="F118" t="n">
-        <v>5.569072246551514</v>
+        <v>-2.791280746459961</v>
       </c>
     </row>
     <row r="119">
@@ -3050,10 +3050,10 @@
         <v>1</v>
       </c>
       <c r="E119" t="n">
-        <v>3.612258672714233</v>
+        <v>-0.98585045337677</v>
       </c>
       <c r="F119" t="n">
-        <v>-0.4202854037284851</v>
+        <v>-4.815736293792725</v>
       </c>
     </row>
     <row r="120">
@@ -3072,10 +3072,10 @@
         <v>2</v>
       </c>
       <c r="E120" t="n">
-        <v>-0.6084938645362854</v>
+        <v>-1.986441373825073</v>
       </c>
       <c r="F120" t="n">
-        <v>-2.137629270553589</v>
+        <v>0.5594680905342102</v>
       </c>
     </row>
     <row r="121">
@@ -3094,10 +3094,10 @@
         <v>0</v>
       </c>
       <c r="E121" t="n">
-        <v>0.4548071920871735</v>
+        <v>1.701649308204651</v>
       </c>
       <c r="F121" t="n">
-        <v>2.370385885238647</v>
+        <v>0.2991366982460022</v>
       </c>
     </row>
     <row r="122">
@@ -3116,10 +3116,10 @@
         <v>3</v>
       </c>
       <c r="E122" t="n">
-        <v>1.184378862380981</v>
+        <v>5.773879528045654</v>
       </c>
       <c r="F122" t="n">
-        <v>7.824929237365723</v>
+        <v>4.869828224182129</v>
       </c>
     </row>
     <row r="123">
@@ -3138,10 +3138,10 @@
         <v>1</v>
       </c>
       <c r="E123" t="n">
-        <v>-2.337529897689819</v>
+        <v>0.3052607774734497</v>
       </c>
       <c r="F123" t="n">
-        <v>2.0756676197052</v>
+        <v>-5.104484558105469</v>
       </c>
     </row>
     <row r="124">
@@ -3160,10 +3160,10 @@
         <v>3</v>
       </c>
       <c r="E124" t="n">
-        <v>2.252111196517944</v>
+        <v>4.639569759368896</v>
       </c>
       <c r="F124" t="n">
-        <v>5.133199691772461</v>
+        <v>2.142715930938721</v>
       </c>
     </row>
     <row r="125">
@@ -3182,10 +3182,10 @@
         <v>1</v>
       </c>
       <c r="E125" t="n">
-        <v>4.869524478912354</v>
+        <v>-1.912144660949707</v>
       </c>
       <c r="F125" t="n">
-        <v>-0.8152760863304138</v>
+        <v>-6.057204246520996</v>
       </c>
     </row>
     <row r="126">
@@ -3204,10 +3204,10 @@
         <v>1</v>
       </c>
       <c r="E126" t="n">
-        <v>3.614264011383057</v>
+        <v>-2.679421186447144</v>
       </c>
       <c r="F126" t="n">
-        <v>1.585015058517456</v>
+        <v>-4.646303176879883</v>
       </c>
     </row>
     <row r="127">
@@ -3226,10 +3226,10 @@
         <v>3</v>
       </c>
       <c r="E127" t="n">
-        <v>3.189913511276245</v>
+        <v>3.817995548248291</v>
       </c>
       <c r="F127" t="n">
-        <v>7.621365070343018</v>
+        <v>5.319913864135742</v>
       </c>
     </row>
     <row r="128">
@@ -3248,10 +3248,10 @@
         <v>2</v>
       </c>
       <c r="E128" t="n">
-        <v>-3.323138952255249</v>
+        <v>-3.677475214004517</v>
       </c>
       <c r="F128" t="n">
-        <v>-2.771671295166016</v>
+        <v>2.427286148071289</v>
       </c>
     </row>
     <row r="129">
@@ -3270,10 +3270,10 @@
         <v>1</v>
       </c>
       <c r="E129" t="n">
-        <v>6.127235412597656</v>
+        <v>-0.4111970067024231</v>
       </c>
       <c r="F129" t="n">
-        <v>-0.725138783454895</v>
+        <v>-6.931656837463379</v>
       </c>
     </row>
     <row r="130">
@@ -3292,10 +3292,10 @@
         <v>2</v>
       </c>
       <c r="E130" t="n">
-        <v>0.1102627962827682</v>
+        <v>-1.957864165306091</v>
       </c>
       <c r="F130" t="n">
-        <v>-1.807060837745667</v>
+        <v>-0.03618777170777321</v>
       </c>
     </row>
     <row r="131">
@@ -3314,10 +3314,10 @@
         <v>1</v>
       </c>
       <c r="E131" t="n">
-        <v>-3.447071552276611</v>
+        <v>2.692994356155396</v>
       </c>
       <c r="F131" t="n">
-        <v>1.105904579162598</v>
+        <v>-4.199284076690674</v>
       </c>
     </row>
     <row r="132">
@@ -3336,10 +3336,10 @@
         <v>1</v>
       </c>
       <c r="E132" t="n">
-        <v>0.8713589310646057</v>
+        <v>0.4220907390117645</v>
       </c>
       <c r="F132" t="n">
-        <v>1.239036917686462</v>
+        <v>-0.6387653946876526</v>
       </c>
     </row>
     <row r="133">
@@ -3358,10 +3358,10 @@
         <v>1</v>
       </c>
       <c r="E133" t="n">
-        <v>-1.505528211593628</v>
+        <v>2.110708475112915</v>
       </c>
       <c r="F133" t="n">
-        <v>3.390680551528931</v>
+        <v>2.928828477859497</v>
       </c>
     </row>
     <row r="134">
@@ -3380,10 +3380,10 @@
         <v>0</v>
       </c>
       <c r="E134" t="n">
-        <v>-0.3576227724552155</v>
+        <v>0.711598813533783</v>
       </c>
       <c r="F134" t="n">
-        <v>1.294217824935913</v>
+        <v>0.3645199537277222</v>
       </c>
     </row>
     <row r="135">
@@ -3402,10 +3402,10 @@
         <v>2</v>
       </c>
       <c r="E135" t="n">
-        <v>-2.989927530288696</v>
+        <v>-4.137745380401611</v>
       </c>
       <c r="F135" t="n">
-        <v>-1.481382608413696</v>
+        <v>-3.282747507095337</v>
       </c>
     </row>
     <row r="136">
@@ -3424,10 +3424,10 @@
         <v>1</v>
       </c>
       <c r="E136" t="n">
-        <v>0.6559330821037292</v>
+        <v>-1.257052898406982</v>
       </c>
       <c r="F136" t="n">
-        <v>-1.165760040283203</v>
+        <v>-0.6458659172058105</v>
       </c>
     </row>
     <row r="137">
@@ -3446,10 +3446,10 @@
         <v>0</v>
       </c>
       <c r="E137" t="n">
-        <v>1.207741737365723</v>
+        <v>-2.274917125701904</v>
       </c>
       <c r="F137" t="n">
-        <v>-2.215035676956177</v>
+        <v>-0.5611741542816162</v>
       </c>
     </row>
     <row r="138">
@@ -3468,10 +3468,10 @@
         <v>2</v>
       </c>
       <c r="E138" t="n">
-        <v>-0.7951691150665283</v>
+        <v>-2.344607830047607</v>
       </c>
       <c r="F138" t="n">
-        <v>-2.604998588562012</v>
+        <v>1.31343936920166</v>
       </c>
     </row>
     <row r="139">
@@ -3490,10 +3490,10 @@
         <v>1</v>
       </c>
       <c r="E139" t="n">
-        <v>-0.1273504197597504</v>
+        <v>2.804273128509521</v>
       </c>
       <c r="F139" t="n">
-        <v>2.546472787857056</v>
+        <v>1.222958087921143</v>
       </c>
     </row>
     <row r="140">
@@ -3512,10 +3512,10 @@
         <v>3</v>
       </c>
       <c r="E140" t="n">
-        <v>0.8360466361045837</v>
+        <v>5.428369998931885</v>
       </c>
       <c r="F140" t="n">
-        <v>7.822617053985596</v>
+        <v>4.982240676879883</v>
       </c>
     </row>
     <row r="141">
@@ -3534,10 +3534,10 @@
         <v>1</v>
       </c>
       <c r="E141" t="n">
-        <v>0.9112386107444763</v>
+        <v>-1.565341830253601</v>
       </c>
       <c r="F141" t="n">
-        <v>-1.093879699707031</v>
+        <v>-1.739000916481018</v>
       </c>
     </row>
     <row r="142">
@@ -3556,10 +3556,10 @@
         <v>0</v>
       </c>
       <c r="E142" t="n">
-        <v>1.797348856925964</v>
+        <v>-0.4951333701610565</v>
       </c>
       <c r="F142" t="n">
-        <v>-5.755488872528076</v>
+        <v>3.613605737686157</v>
       </c>
     </row>
     <row r="143">
@@ -3578,10 +3578,10 @@
         <v>0</v>
       </c>
       <c r="E143" t="n">
-        <v>-1.178814291954041</v>
+        <v>1.17343270778656</v>
       </c>
       <c r="F143" t="n">
-        <v>0.1833122223615646</v>
+        <v>-2.759530544281006</v>
       </c>
     </row>
     <row r="144">
@@ -3600,10 +3600,10 @@
         <v>0</v>
       </c>
       <c r="E144" t="n">
-        <v>3.539971590042114</v>
+        <v>-1.624302268028259</v>
       </c>
       <c r="F144" t="n">
-        <v>-5.405396938323975</v>
+        <v>2.555651187896729</v>
       </c>
     </row>
     <row r="145">
@@ -3622,10 +3622,10 @@
         <v>0</v>
       </c>
       <c r="E145" t="n">
-        <v>3.558748960494995</v>
+        <v>4.905665874481201</v>
       </c>
       <c r="F145" t="n">
-        <v>-3.691426277160645</v>
+        <v>0.7932829856872559</v>
       </c>
     </row>
     <row r="146">
@@ -3644,10 +3644,10 @@
         <v>2</v>
       </c>
       <c r="E146" t="n">
-        <v>-1.923221945762634</v>
+        <v>0.3578960597515106</v>
       </c>
       <c r="F146" t="n">
-        <v>0.4859546422958374</v>
+        <v>-1.706846952438354</v>
       </c>
     </row>
     <row r="147">
@@ -3666,10 +3666,10 @@
         <v>2</v>
       </c>
       <c r="E147" t="n">
-        <v>-2.326311111450195</v>
+        <v>-3.999963283538818</v>
       </c>
       <c r="F147" t="n">
-        <v>-3.1982421875</v>
+        <v>1.35605251789093</v>
       </c>
     </row>
     <row r="148">
@@ -3688,10 +3688,10 @@
         <v>3</v>
       </c>
       <c r="E148" t="n">
-        <v>0.8958109617233276</v>
+        <v>4.180109024047852</v>
       </c>
       <c r="F148" t="n">
-        <v>5.012048721313477</v>
+        <v>2.41874885559082</v>
       </c>
     </row>
     <row r="149">
@@ -3710,10 +3710,10 @@
         <v>2</v>
       </c>
       <c r="E149" t="n">
-        <v>-1.540922522544861</v>
+        <v>-4.651177406311035</v>
       </c>
       <c r="F149" t="n">
-        <v>-4.627473831176758</v>
+        <v>-0.4711521565914154</v>
       </c>
     </row>
     <row r="150">
@@ -3732,10 +3732,10 @@
         <v>2</v>
       </c>
       <c r="E150" t="n">
-        <v>-1.702090859413147</v>
+        <v>-4.230127811431885</v>
       </c>
       <c r="F150" t="n">
-        <v>-4.00304126739502</v>
+        <v>0.07622925192117691</v>
       </c>
     </row>
     <row r="151">
@@ -3754,10 +3754,10 @@
         <v>1</v>
       </c>
       <c r="E151" t="n">
-        <v>1.978211760520935</v>
+        <v>-0.1925114840269089</v>
       </c>
       <c r="F151" t="n">
-        <v>1.184833645820618</v>
+        <v>-1.279160380363464</v>
       </c>
     </row>
     <row r="152">
@@ -3776,10 +3776,10 @@
         <v>1</v>
       </c>
       <c r="E152" t="n">
-        <v>-3.169849872589111</v>
+        <v>1.911044597625732</v>
       </c>
       <c r="F152" t="n">
-        <v>4.951295375823975</v>
+        <v>-1.456958532333374</v>
       </c>
     </row>
     <row r="153">
@@ -3798,10 +3798,10 @@
         <v>2</v>
       </c>
       <c r="E153" t="n">
-        <v>2.040151119232178</v>
+        <v>-3.907865524291992</v>
       </c>
       <c r="F153" t="n">
-        <v>-2.28273344039917</v>
+        <v>-1.458554625511169</v>
       </c>
     </row>
     <row r="154">
@@ -3820,10 +3820,10 @@
         <v>0</v>
       </c>
       <c r="E154" t="n">
-        <v>2.605985164642334</v>
+        <v>7.342231750488281</v>
       </c>
       <c r="F154" t="n">
-        <v>-6.529756546020508</v>
+        <v>-0.08765169233083725</v>
       </c>
     </row>
     <row r="155">
@@ -3842,10 +3842,10 @@
         <v>0</v>
       </c>
       <c r="E155" t="n">
-        <v>5.992233753204346</v>
+        <v>-0.6326814889907837</v>
       </c>
       <c r="F155" t="n">
-        <v>2.415180683135986</v>
+        <v>1.44203794002533</v>
       </c>
     </row>
     <row r="156">
@@ -3864,10 +3864,10 @@
         <v>1</v>
       </c>
       <c r="E156" t="n">
-        <v>0.9789632558822632</v>
+        <v>-0.8720443844795227</v>
       </c>
       <c r="F156" t="n">
-        <v>0.0560181513428688</v>
+        <v>-2.232779979705811</v>
       </c>
     </row>
     <row r="157">
@@ -3886,10 +3886,10 @@
         <v>0</v>
       </c>
       <c r="E157" t="n">
-        <v>-4.351058959960938</v>
+        <v>0.4546133577823639</v>
       </c>
       <c r="F157" t="n">
-        <v>-0.6936588883399963</v>
+        <v>2.248637676239014</v>
       </c>
     </row>
     <row r="158">
@@ -3908,10 +3908,10 @@
         <v>1</v>
       </c>
       <c r="E158" t="n">
-        <v>-0.7480401396751404</v>
+        <v>2.086597204208374</v>
       </c>
       <c r="F158" t="n">
-        <v>2.863089084625244</v>
+        <v>1.331457614898682</v>
       </c>
     </row>
     <row r="159">
@@ -3930,10 +3930,10 @@
         <v>3</v>
       </c>
       <c r="E159" t="n">
-        <v>3.240992784500122</v>
+        <v>3.70072078704834</v>
       </c>
       <c r="F159" t="n">
-        <v>7.494392395019531</v>
+        <v>5.197476863861084</v>
       </c>
     </row>
     <row r="160">
@@ -3952,10 +3952,10 @@
         <v>1</v>
       </c>
       <c r="E160" t="n">
-        <v>2.784388780593872</v>
+        <v>-0.934777557849884</v>
       </c>
       <c r="F160" t="n">
-        <v>-0.2555112242698669</v>
+        <v>-3.972591161727905</v>
       </c>
     </row>
     <row r="161">
@@ -3974,10 +3974,10 @@
         <v>1</v>
       </c>
       <c r="E161" t="n">
-        <v>-3.105730772018433</v>
+        <v>2.166315078735352</v>
       </c>
       <c r="F161" t="n">
-        <v>0.9507167339324951</v>
+        <v>-4.370231151580811</v>
       </c>
     </row>
     <row r="162">
@@ -3996,10 +3996,10 @@
         <v>0</v>
       </c>
       <c r="E162" t="n">
-        <v>2.159328699111938</v>
+        <v>3.335974931716919</v>
       </c>
       <c r="F162" t="n">
-        <v>3.338787078857422</v>
+        <v>-0.06755564361810684</v>
       </c>
     </row>
     <row r="163">
@@ -4018,10 +4018,10 @@
         <v>1</v>
       </c>
       <c r="E163" t="n">
-        <v>-1.017459392547607</v>
+        <v>0.8463762998580933</v>
       </c>
       <c r="F163" t="n">
-        <v>0.1416553854942322</v>
+        <v>-2.359684705734253</v>
       </c>
     </row>
     <row r="164">
@@ -4040,10 +4040,10 @@
         <v>2</v>
       </c>
       <c r="E164" t="n">
-        <v>4.983121871948242</v>
+        <v>-4.304370880126953</v>
       </c>
       <c r="F164" t="n">
-        <v>1.328781962394714</v>
+        <v>-5.004107475280762</v>
       </c>
     </row>
     <row r="165">
@@ -4062,10 +4062,10 @@
         <v>0</v>
       </c>
       <c r="E165" t="n">
-        <v>1.084701418876648</v>
+        <v>-0.36411452293396</v>
       </c>
       <c r="F165" t="n">
-        <v>-4.155677795410156</v>
+        <v>2.443336963653564</v>
       </c>
     </row>
     <row r="166">
@@ -4084,10 +4084,10 @@
         <v>1</v>
       </c>
       <c r="E166" t="n">
-        <v>0.1742172539234161</v>
+        <v>-0.3697420358657837</v>
       </c>
       <c r="F166" t="n">
-        <v>-0.4605264067649841</v>
+        <v>-0.4221249520778656</v>
       </c>
     </row>
     <row r="167">
@@ -4106,10 +4106,10 @@
         <v>1</v>
       </c>
       <c r="E167" t="n">
-        <v>-0.6214426159858704</v>
+        <v>-0.08130467683076859</v>
       </c>
       <c r="F167" t="n">
-        <v>-0.6847176551818848</v>
+        <v>-3.214420557022095</v>
       </c>
     </row>
   </sheetData>
